--- a/rd_connect_auto.xlsx
+++ b/rd_connect_auto.xlsx
@@ -10,14 +10,15 @@
     <sheet name="packages" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="rd_connect_test_dir" sheetId="4" r:id="rId4"/>
+    <sheet name="rd_connect_test_directories" sheetId="4" r:id="rId4"/>
+    <sheet name="rd_connect_test_deseases" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="831">
   <si>
     <t>name</t>
   </si>
@@ -55,7 +56,7 @@
     <t>description-en</t>
   </si>
   <si>
-    <t>dir</t>
+    <t>directories</t>
   </si>
   <si>
     <t>Directory</t>
@@ -64,6 +65,9 @@
     <t>PostgreSQL</t>
   </si>
   <si>
+    <t>deseases</t>
+  </si>
+  <si>
     <t>entity</t>
   </si>
   <si>
@@ -89,9 +93,6 @@
   </si>
   <si>
     <t>date_of_inclusion</t>
-  </si>
-  <si>
-    <t>rd_connect_test_dir</t>
   </si>
   <si>
     <t>string</t>
@@ -2892,7 +2893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2941,6 +2942,20 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2968,28 +2983,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -3000,13 +3015,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3029,7 +3044,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -3052,7 +3067,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -3075,7 +3090,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3098,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -3121,7 +3136,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -3151,7 +3166,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
@@ -11532,4 +11547,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rd_connect_auto.xlsx
+++ b/rd_connect_auto.xlsx
@@ -11,14 +11,13 @@
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
     <sheet name="rd_connect_test_directories" sheetId="4" r:id="rId4"/>
-    <sheet name="rd_connect_test_deseases" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="831">
   <si>
     <t>name</t>
   </si>
@@ -65,9 +64,6 @@
     <t>PostgreSQL</t>
   </si>
   <si>
-    <t>deseases</t>
-  </si>
-  <si>
     <t>entity</t>
   </si>
   <si>
@@ -93,6 +89,9 @@
   </si>
   <si>
     <t>date_of_inclusion</t>
+  </si>
+  <si>
+    <t>rd_connect_test_directories</t>
   </si>
   <si>
     <t>string</t>
@@ -2893,7 +2892,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2942,20 +2941,6 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2983,28 +2968,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -3015,13 +3000,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3044,7 +3029,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -3067,7 +3052,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -3090,7 +3075,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3113,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -3136,7 +3121,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -3166,7 +3151,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
@@ -11547,16 +11532,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/rd_connect_auto.xlsx
+++ b/rd_connect_auto.xlsx
@@ -11,13 +11,14 @@
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
     <sheet name="rd_connect_test_directories" sheetId="4" r:id="rId4"/>
+    <sheet name="rd_connect_test_diseases" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="832">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +63,9 @@
   </si>
   <si>
     <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>diseases</t>
   </si>
   <si>
     <t>entity</t>
@@ -2892,7 +2896,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2941,6 +2945,20 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2968,28 +2986,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -3000,94 +3018,94 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3098,42 +3116,42 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3151,22 +3169,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3177,16 +3195,16 @@
         <v>11193</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>20170201</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3197,16 +3215,16 @@
         <v>10779</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>20171027</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3217,16 +3235,16 @@
         <v>10797</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>20180207</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3237,16 +3255,16 @@
         <v>206202</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>20180207</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3257,16 +3275,16 @@
         <v>116406</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>20170111</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3277,16 +3295,16 @@
         <v>234166</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>20171107</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3297,16 +3315,16 @@
         <v>196837</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>20161103</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3317,16 +3335,16 @@
         <v>112988</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>20180208</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3337,16 +3355,16 @@
         <v>10809</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>20180208</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3357,16 +3375,16 @@
         <v>222303</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>20170414</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3377,16 +3395,16 @@
         <v>113297</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>20170224</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3397,16 +3415,16 @@
         <v>116248</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>20161027</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3417,16 +3435,16 @@
         <v>249752</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>20180810</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3437,16 +3455,16 @@
         <v>89869</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>20180704</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3457,16 +3475,16 @@
         <v>205420</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>20180221</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3477,16 +3495,16 @@
         <v>10833</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>20180221</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3497,16 +3515,16 @@
         <v>10845</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>20180223</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3517,16 +3535,16 @@
         <v>225400</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>20170502</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3537,16 +3555,16 @@
         <v>114818</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>20180223</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3557,16 +3575,16 @@
         <v>159466</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>20170421</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3577,16 +3595,16 @@
         <v>225609</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>20180223</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3597,16 +3615,16 @@
         <v>12077</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>20180223</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3617,16 +3635,16 @@
         <v>46321</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>20180223</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3637,16 +3655,16 @@
         <v>173631</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25">
         <v>20160617</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3657,16 +3675,16 @@
         <v>45401</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26">
         <v>20170828</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3677,16 +3695,16 @@
         <v>76957</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27">
         <v>20160517</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3697,16 +3715,16 @@
         <v>10869</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>20180223</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3717,16 +3735,16 @@
         <v>259422</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>20181121</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3737,16 +3755,16 @@
         <v>159334</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>20161111</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3757,16 +3775,16 @@
         <v>47701</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>20150603</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3777,16 +3795,16 @@
         <v>194100</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>20161027</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3797,16 +3815,16 @@
         <v>89518</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>20180207</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3817,16 +3835,16 @@
         <v>208087</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34">
         <v>20161107</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3837,16 +3855,16 @@
         <v>161932</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35">
         <v>20180810</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3857,16 +3875,16 @@
         <v>77219</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36">
         <v>20160310</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3877,16 +3895,16 @@
         <v>44001</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <v>20150415</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3897,16 +3915,16 @@
         <v>131302</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38">
         <v>20180223</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3917,16 +3935,16 @@
         <v>38525</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>20161026</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3937,16 +3955,16 @@
         <v>85150</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40">
         <v>20170412</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3957,16 +3975,16 @@
         <v>84902</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41">
         <v>20170412</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3977,16 +3995,16 @@
         <v>84654</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42">
         <v>20170412</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3997,16 +4015,16 @@
         <v>85759</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43">
         <v>20170412</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4017,16 +4035,16 @@
         <v>84778</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <v>20171116</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4037,16 +4055,16 @@
         <v>85026</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45">
         <v>20181122</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4057,16 +4075,16 @@
         <v>85573</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>20170412</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4077,16 +4095,16 @@
         <v>85907</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47">
         <v>20170412</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4097,16 +4115,16 @@
         <v>84523</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48">
         <v>20161026</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4117,16 +4135,16 @@
         <v>10881</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49">
         <v>20170117</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4137,16 +4155,16 @@
         <v>76823</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50">
         <v>20180404</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4157,16 +4175,16 @@
         <v>216171</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51">
         <v>20181122</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4177,16 +4195,16 @@
         <v>177725</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52">
         <v>20161117</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4197,16 +4215,16 @@
         <v>205030</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53">
         <v>20161102</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4217,16 +4235,16 @@
         <v>231512</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54">
         <v>20171010</v>
       </c>
       <c r="E54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4237,16 +4255,16 @@
         <v>48101</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>20171023</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4257,16 +4275,16 @@
         <v>45274</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D56">
         <v>20160513</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4277,16 +4295,16 @@
         <v>62316</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D57">
         <v>20160901</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4297,16 +4315,16 @@
         <v>261780</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D58">
         <v>20190606</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4317,16 +4335,16 @@
         <v>77630</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59">
         <v>20160506</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4337,16 +4355,16 @@
         <v>177495</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60">
         <v>20161026</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4357,16 +4375,16 @@
         <v>36511</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61">
         <v>20180227</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4377,16 +4395,16 @@
         <v>48255</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62">
         <v>20161027</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4397,16 +4415,16 @@
         <v>10917</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63">
         <v>20161027</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4417,16 +4435,16 @@
         <v>113165</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64">
         <v>20161027</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4437,16 +4455,16 @@
         <v>35824</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65">
         <v>20171017</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4457,16 +4475,16 @@
         <v>90833</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <v>20180309</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4477,16 +4495,16 @@
         <v>192524</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67">
         <v>20161005</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4497,16 +4515,16 @@
         <v>10941</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68">
         <v>20161026</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4517,16 +4535,16 @@
         <v>10965</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69">
         <v>20171027</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4537,16 +4555,16 @@
         <v>65242</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70">
         <v>20170426</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4557,16 +4575,16 @@
         <v>10977</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71">
         <v>20170117</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4577,16 +4595,16 @@
         <v>114950</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72">
         <v>20161028</v>
       </c>
       <c r="E72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4597,16 +4615,16 @@
         <v>11813</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73">
         <v>20170413</v>
       </c>
       <c r="E73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4617,16 +4635,16 @@
         <v>221634</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74">
         <v>20170413</v>
       </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4637,16 +4655,16 @@
         <v>10989</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75">
         <v>20171010</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4657,16 +4675,16 @@
         <v>168416</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D76">
         <v>20171019</v>
       </c>
       <c r="E76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4677,16 +4695,16 @@
         <v>11001</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77">
         <v>20161026</v>
       </c>
       <c r="E77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4697,16 +4715,16 @@
         <v>231301</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78">
         <v>20171010</v>
       </c>
       <c r="E78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4717,16 +4735,16 @@
         <v>227349</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79">
         <v>20170504</v>
       </c>
       <c r="E79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4737,16 +4755,16 @@
         <v>65397</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80">
         <v>20150603</v>
       </c>
       <c r="E80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4757,16 +4775,16 @@
         <v>13611</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81">
         <v>20180829</v>
       </c>
       <c r="E81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4777,16 +4795,16 @@
         <v>221162</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82">
         <v>20180824</v>
       </c>
       <c r="E82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4797,16 +4815,16 @@
         <v>65873</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83">
         <v>20150603</v>
       </c>
       <c r="E83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4817,16 +4835,16 @@
         <v>244258</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84">
         <v>20180221</v>
       </c>
       <c r="E84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4837,16 +4855,16 @@
         <v>11025</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85">
         <v>20180221</v>
       </c>
       <c r="E85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4857,16 +4875,16 @@
         <v>11037</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86">
         <v>20180723</v>
       </c>
       <c r="E86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4877,16 +4895,16 @@
         <v>232952</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87">
         <v>20171023</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4897,16 +4915,16 @@
         <v>41839</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88">
         <v>20150603</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4917,16 +4935,16 @@
         <v>204416</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D89">
         <v>20171019</v>
       </c>
       <c r="E89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4937,16 +4955,16 @@
         <v>11049</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90">
         <v>20150112</v>
       </c>
       <c r="E90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4957,16 +4975,16 @@
         <v>178316</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91">
         <v>20171010</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4977,16 +4995,16 @@
         <v>46165</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92">
         <v>20160225</v>
       </c>
       <c r="E92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4997,16 +5015,16 @@
         <v>63303</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93">
         <v>20170210</v>
       </c>
       <c r="E93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5017,16 +5035,16 @@
         <v>11061</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94">
         <v>20170329</v>
       </c>
       <c r="E94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5037,16 +5055,16 @@
         <v>62447</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95">
         <v>20171019</v>
       </c>
       <c r="E95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5057,16 +5075,16 @@
         <v>167562</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96">
         <v>20161027</v>
       </c>
       <c r="E96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5077,16 +5095,16 @@
         <v>204077</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97">
         <v>20161028</v>
       </c>
       <c r="E97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5097,16 +5115,16 @@
         <v>204613</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98">
         <v>20180824</v>
       </c>
       <c r="E98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5117,16 +5135,16 @@
         <v>11085</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99">
         <v>20161027</v>
       </c>
       <c r="E99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5137,16 +5155,16 @@
         <v>232527</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100">
         <v>20171020</v>
       </c>
       <c r="E100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5157,16 +5175,16 @@
         <v>114240</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101">
         <v>20161028</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5177,16 +5195,16 @@
         <v>73301</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102">
         <v>20150604</v>
       </c>
       <c r="E102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5197,16 +5215,16 @@
         <v>11533</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103">
         <v>20181107</v>
       </c>
       <c r="E103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5217,16 +5235,16 @@
         <v>211716</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104">
         <v>20170201</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5237,16 +5255,16 @@
         <v>244991</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105">
         <v>20180312</v>
       </c>
       <c r="E105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5257,16 +5275,16 @@
         <v>11097</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106">
         <v>20180208</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5277,16 +5295,16 @@
         <v>11109</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D107">
         <v>20170222</v>
       </c>
       <c r="E107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5297,16 +5315,16 @@
         <v>11121</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108">
         <v>20171010</v>
       </c>
       <c r="E108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5317,16 +5335,16 @@
         <v>11133</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109">
         <v>20161124</v>
       </c>
       <c r="E109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5337,16 +5355,16 @@
         <v>71400</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110">
         <v>20161028</v>
       </c>
       <c r="E110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5357,16 +5375,16 @@
         <v>193177</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111">
         <v>20180422</v>
       </c>
       <c r="E111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5377,16 +5395,16 @@
         <v>86933</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112">
         <v>20161028</v>
       </c>
       <c r="E112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5397,16 +5415,16 @@
         <v>11145</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113">
         <v>20161027</v>
       </c>
       <c r="E113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5417,16 +5435,16 @@
         <v>73425</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114">
         <v>20180827</v>
       </c>
       <c r="E114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5437,16 +5455,16 @@
         <v>11169</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115">
         <v>20170131</v>
       </c>
       <c r="E115" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5457,16 +5475,16 @@
         <v>73162</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D116">
         <v>20150327</v>
       </c>
       <c r="E116" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5477,16 +5495,16 @@
         <v>11181</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D117">
         <v>20150413</v>
       </c>
       <c r="E117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5497,16 +5515,16 @@
         <v>252493</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D118">
         <v>20180828</v>
       </c>
       <c r="E118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5517,16 +5535,16 @@
         <v>211162</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D119">
         <v>20161124</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5537,16 +5555,16 @@
         <v>221861</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D120">
         <v>20170413</v>
       </c>
       <c r="E120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5557,16 +5575,16 @@
         <v>42007</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121">
         <v>20170426</v>
       </c>
       <c r="E121" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5577,16 +5595,16 @@
         <v>130489</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D122">
         <v>20180828</v>
       </c>
       <c r="E122" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5597,16 +5615,16 @@
         <v>115131</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D123">
         <v>20151015</v>
       </c>
       <c r="E123" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5617,16 +5635,16 @@
         <v>176402</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124">
         <v>20170419</v>
       </c>
       <c r="E124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5637,16 +5655,16 @@
         <v>222978</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125">
         <v>20170419</v>
       </c>
       <c r="E125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5657,16 +5675,16 @@
         <v>203498</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126">
         <v>20161027</v>
       </c>
       <c r="E126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5677,16 +5695,16 @@
         <v>253301</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D127">
         <v>20180830</v>
       </c>
       <c r="E127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5697,16 +5715,16 @@
         <v>61665</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D128">
         <v>20150226</v>
       </c>
       <c r="E128" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5717,16 +5735,16 @@
         <v>71741</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D129">
         <v>20170131</v>
       </c>
       <c r="E129" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5737,16 +5755,16 @@
         <v>209428</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D130">
         <v>20170224</v>
       </c>
       <c r="E130" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5757,16 +5775,16 @@
         <v>222765</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D131">
         <v>20170419</v>
       </c>
       <c r="E131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5777,16 +5795,16 @@
         <v>226047</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D132">
         <v>20170503</v>
       </c>
       <c r="E132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5797,16 +5815,16 @@
         <v>70366</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133">
         <v>20170131</v>
       </c>
       <c r="E133" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5817,16 +5835,16 @@
         <v>70509</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134">
         <v>20150408</v>
       </c>
       <c r="E134" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5837,16 +5855,16 @@
         <v>65551</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D135">
         <v>20150603</v>
       </c>
       <c r="E135" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5857,16 +5875,16 @@
         <v>159598</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D136">
         <v>20170505</v>
       </c>
       <c r="E136" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5877,16 +5895,16 @@
         <v>75540</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D137">
         <v>20150604</v>
       </c>
       <c r="E137" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5897,16 +5915,16 @@
         <v>70664</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D138">
         <v>20170131</v>
       </c>
       <c r="E138" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5917,16 +5935,16 @@
         <v>155359</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D139">
         <v>20160129</v>
       </c>
       <c r="E139" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5937,16 +5955,16 @@
         <v>77350</v>
       </c>
       <c r="C140" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D140">
         <v>20170421</v>
       </c>
       <c r="E140" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5957,16 +5975,16 @@
         <v>77088</v>
       </c>
       <c r="C141" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D141">
         <v>20160607</v>
       </c>
       <c r="E141" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5977,16 +5995,16 @@
         <v>232162</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D142">
         <v>20171018</v>
       </c>
       <c r="E142" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5997,16 +6015,16 @@
         <v>227131</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D143">
         <v>20170504</v>
       </c>
       <c r="E143" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6017,16 +6035,16 @@
         <v>115425</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D144">
         <v>20170222</v>
       </c>
       <c r="E144" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6037,16 +6055,16 @@
         <v>243998</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D145">
         <v>20180704</v>
       </c>
       <c r="E145" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6057,16 +6075,16 @@
         <v>11545</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D146">
         <v>20180704</v>
       </c>
       <c r="E146" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6077,16 +6095,16 @@
         <v>249304</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D147">
         <v>20180809</v>
       </c>
       <c r="E147" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6097,16 +6115,16 @@
         <v>36907</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D148">
         <v>20180223</v>
       </c>
       <c r="E148" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6117,16 +6135,16 @@
         <v>225819</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D149">
         <v>20170503</v>
       </c>
       <c r="E149" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6137,16 +6155,16 @@
         <v>113478</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D150">
         <v>20180207</v>
       </c>
       <c r="E150" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6157,16 +6175,16 @@
         <v>92258</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D151">
         <v>20180829</v>
       </c>
       <c r="E151" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6177,16 +6195,16 @@
         <v>71896</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D152">
         <v>20161102</v>
       </c>
       <c r="E152" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6197,16 +6215,16 @@
         <v>232757</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D153">
         <v>20190220</v>
       </c>
       <c r="E153" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6217,16 +6235,16 @@
         <v>11217</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D154">
         <v>20171010</v>
       </c>
       <c r="E154" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6237,16 +6255,16 @@
         <v>191553</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D155">
         <v>20181030</v>
       </c>
       <c r="E155" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6257,16 +6275,16 @@
         <v>254801</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D156">
         <v>20181019</v>
       </c>
       <c r="E156" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6277,16 +6295,16 @@
         <v>11241</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D157">
         <v>20150603</v>
       </c>
       <c r="E157" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6297,16 +6315,16 @@
         <v>70199</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D158">
         <v>20170206</v>
       </c>
       <c r="E158" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6317,16 +6335,16 @@
         <v>253010</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D159">
         <v>20180829</v>
       </c>
       <c r="E159" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6337,16 +6355,16 @@
         <v>193914</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D160">
         <v>20161028</v>
       </c>
       <c r="E160" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6357,16 +6375,16 @@
         <v>11253</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D161">
         <v>20161028</v>
       </c>
       <c r="E161" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6377,16 +6395,16 @@
         <v>11265</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D162">
         <v>20171115</v>
       </c>
       <c r="E162" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6397,16 +6415,16 @@
         <v>173780</v>
       </c>
       <c r="C163" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D163">
         <v>20190522</v>
       </c>
       <c r="E163" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6417,16 +6435,16 @@
         <v>65711</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D164">
         <v>20150603</v>
       </c>
       <c r="E164" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6437,16 +6455,16 @@
         <v>81938</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D165">
         <v>20150417</v>
       </c>
       <c r="E165" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -6457,16 +6475,16 @@
         <v>64007</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D166">
         <v>20150603</v>
       </c>
       <c r="E166" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6477,16 +6495,16 @@
         <v>11277</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D167">
         <v>20160927</v>
       </c>
       <c r="E167" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6497,16 +6515,16 @@
         <v>74708</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D168">
         <v>20150330</v>
       </c>
       <c r="E168" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6517,16 +6535,16 @@
         <v>205227</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D169">
         <v>20161102</v>
       </c>
       <c r="E169" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -6537,16 +6555,16 @@
         <v>215190</v>
       </c>
       <c r="C170" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D170">
         <v>20170309</v>
       </c>
       <c r="E170" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6557,16 +6575,16 @@
         <v>46473</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D171">
         <v>20160412</v>
       </c>
       <c r="E171" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6577,16 +6595,16 @@
         <v>231801</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D172">
         <v>20171011</v>
       </c>
       <c r="E172" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -6597,16 +6615,16 @@
         <v>11289</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D173">
         <v>20150112</v>
       </c>
       <c r="E173" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -6617,16 +6635,16 @@
         <v>11301</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D174">
         <v>20161028</v>
       </c>
       <c r="E174" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -6637,16 +6655,16 @@
         <v>64524</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D175">
         <v>20180824</v>
       </c>
       <c r="E175" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6657,16 +6675,16 @@
         <v>63124</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D176">
         <v>20170209</v>
       </c>
       <c r="E176" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6677,16 +6695,16 @@
         <v>11313</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D177">
         <v>20161113</v>
       </c>
       <c r="E177" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6697,16 +6715,16 @@
         <v>11325</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D178">
         <v>20170208</v>
       </c>
       <c r="E178" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6717,16 +6735,16 @@
         <v>67429</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D179">
         <v>20150603</v>
       </c>
       <c r="E179" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6737,16 +6755,16 @@
         <v>206007</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D180">
         <v>20161103</v>
       </c>
       <c r="E180" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6757,16 +6775,16 @@
         <v>72234</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D181">
         <v>20170209</v>
       </c>
       <c r="E181" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -6777,16 +6795,16 @@
         <v>11361</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D182">
         <v>20161103</v>
       </c>
       <c r="E182" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -6797,16 +6815,16 @@
         <v>62971</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D183">
         <v>20161028</v>
       </c>
       <c r="E183" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -6817,16 +6835,16 @@
         <v>11825</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D184">
         <v>20180131</v>
       </c>
       <c r="E184" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -6837,16 +6855,16 @@
         <v>75679</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D185">
         <v>20180703</v>
       </c>
       <c r="E185" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -6857,16 +6875,16 @@
         <v>233148</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D186">
         <v>20171023</v>
       </c>
       <c r="E186" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -6877,16 +6895,16 @@
         <v>252808</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D187">
         <v>20180829</v>
       </c>
       <c r="E187" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -6897,16 +6915,16 @@
         <v>74051</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D188">
         <v>20170208</v>
       </c>
       <c r="E188" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -6917,16 +6935,16 @@
         <v>89221</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D189">
         <v>20171010</v>
       </c>
       <c r="E189" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -6937,16 +6955,16 @@
         <v>89057</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D190">
         <v>20161027</v>
       </c>
       <c r="E190" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -6957,16 +6975,16 @@
         <v>207032</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D191">
         <v>20161104</v>
       </c>
       <c r="E191" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -6977,16 +6995,16 @@
         <v>78002</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D192">
         <v>20150604</v>
       </c>
       <c r="E192" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -6997,16 +7015,16 @@
         <v>74970</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D193">
         <v>20180227</v>
       </c>
       <c r="E193" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7017,16 +7035,16 @@
         <v>11385</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D194">
         <v>20170209</v>
       </c>
       <c r="E194" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7037,16 +7055,16 @@
         <v>75948</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D195">
         <v>20170209</v>
       </c>
       <c r="E195" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7057,16 +7075,16 @@
         <v>208282</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D196">
         <v>20161107</v>
       </c>
       <c r="E196" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7077,16 +7095,16 @@
         <v>83375</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D197">
         <v>20170203</v>
       </c>
       <c r="E197" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7097,16 +7115,16 @@
         <v>83217</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D198">
         <v>20161028</v>
       </c>
       <c r="E198" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7117,16 +7135,16 @@
         <v>79757</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D199">
         <v>20150415</v>
       </c>
       <c r="E199" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -7137,16 +7155,16 @@
         <v>249519</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D200">
         <v>20180809</v>
       </c>
       <c r="E200" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -7157,16 +7175,16 @@
         <v>72875</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D201">
         <v>20161027</v>
       </c>
       <c r="E201" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -7177,16 +7195,16 @@
         <v>75272</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D202">
         <v>20161027</v>
       </c>
       <c r="E202" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -7197,16 +7215,16 @@
         <v>76079</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D203">
         <v>20150715</v>
       </c>
       <c r="E203" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -7217,16 +7235,16 @@
         <v>75809</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D204">
         <v>20150410</v>
       </c>
       <c r="E204" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -7237,16 +7255,16 @@
         <v>205612</v>
       </c>
       <c r="C205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D205">
         <v>20180208</v>
       </c>
       <c r="E205" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -7257,16 +7275,16 @@
         <v>67104</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D206">
         <v>20170208</v>
       </c>
       <c r="E206" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -7277,16 +7295,16 @@
         <v>11397</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D207">
         <v>20150603</v>
       </c>
       <c r="E207" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -7297,16 +7315,16 @@
         <v>11409</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D208">
         <v>20150408</v>
       </c>
       <c r="E208" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -7317,16 +7335,16 @@
         <v>203715</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D209">
         <v>20180802</v>
       </c>
       <c r="E209" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -7337,16 +7355,16 @@
         <v>55076</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D210">
         <v>20150604</v>
       </c>
       <c r="E210" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -7357,16 +7375,16 @@
         <v>167104</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D211">
         <v>20171010</v>
       </c>
       <c r="E211" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -7377,16 +7395,16 @@
         <v>64368</v>
       </c>
       <c r="C212" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D212">
         <v>20150604</v>
       </c>
       <c r="E212" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -7397,16 +7415,16 @@
         <v>46891</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D213">
         <v>20160412</v>
       </c>
       <c r="E213" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -7417,16 +7435,16 @@
         <v>71236</v>
       </c>
       <c r="C214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D214">
         <v>20160412</v>
       </c>
       <c r="E214" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -7437,16 +7455,16 @@
         <v>11433</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D215">
         <v>20180828</v>
       </c>
       <c r="E215" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -7457,16 +7475,16 @@
         <v>11445</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D216">
         <v>20171115</v>
       </c>
       <c r="E216" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -7477,16 +7495,16 @@
         <v>253510</v>
       </c>
       <c r="C217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D217">
         <v>20180830</v>
       </c>
       <c r="E217" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -7497,16 +7515,16 @@
         <v>61834</v>
       </c>
       <c r="C218" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D218">
         <v>20150408</v>
       </c>
       <c r="E218" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -7517,16 +7535,16 @@
         <v>90521</v>
       </c>
       <c r="C219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D219">
         <v>20170208</v>
       </c>
       <c r="E219" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -7537,16 +7555,16 @@
         <v>11457</v>
       </c>
       <c r="C220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D220">
         <v>20170209</v>
       </c>
       <c r="E220" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -7557,16 +7575,16 @@
         <v>168144</v>
       </c>
       <c r="C221" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D221">
         <v>20180327</v>
       </c>
       <c r="E221" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -7577,16 +7595,16 @@
         <v>168284</v>
       </c>
       <c r="C222" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D222">
         <v>20171019</v>
       </c>
       <c r="E222" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -7597,16 +7615,16 @@
         <v>88051</v>
       </c>
       <c r="C223" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D223">
         <v>20160712</v>
       </c>
       <c r="E223" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -7617,16 +7635,16 @@
         <v>71057</v>
       </c>
       <c r="C224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D224">
         <v>20150323</v>
       </c>
       <c r="E224" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -7637,16 +7655,16 @@
         <v>76655</v>
       </c>
       <c r="C225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D225">
         <v>20170404</v>
       </c>
       <c r="E225" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -7657,16 +7675,16 @@
         <v>215616</v>
       </c>
       <c r="C226" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D226">
         <v>20170124</v>
       </c>
       <c r="E226" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -7677,16 +7695,16 @@
         <v>11485</v>
       </c>
       <c r="C227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D227">
         <v>20150108</v>
       </c>
       <c r="E227" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -7697,16 +7715,16 @@
         <v>11497</v>
       </c>
       <c r="C228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D228">
         <v>20150603</v>
       </c>
       <c r="E228" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -7717,16 +7735,16 @@
         <v>244481</v>
       </c>
       <c r="C229" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D229">
         <v>20180223</v>
       </c>
       <c r="E229" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -7737,16 +7755,16 @@
         <v>175391</v>
       </c>
       <c r="C230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D230">
         <v>20180824</v>
       </c>
       <c r="E230" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -7757,16 +7775,16 @@
         <v>161797</v>
       </c>
       <c r="C231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D231">
         <v>20170210</v>
       </c>
       <c r="E231" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -7777,16 +7795,16 @@
         <v>11509</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D232">
         <v>20150112</v>
       </c>
       <c r="E232" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -7797,16 +7815,16 @@
         <v>168694</v>
       </c>
       <c r="C233" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D233">
         <v>20170215</v>
       </c>
       <c r="E233" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -7817,16 +7835,16 @@
         <v>115781</v>
       </c>
       <c r="C234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D234">
         <v>20180831</v>
       </c>
       <c r="E234" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -7837,16 +7855,16 @@
         <v>89387</v>
       </c>
       <c r="C235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D235">
         <v>20180201</v>
       </c>
       <c r="E235" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -7857,16 +7875,16 @@
         <v>47188</v>
       </c>
       <c r="C236" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D236">
         <v>20160412</v>
       </c>
       <c r="E236" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -7877,16 +7895,16 @@
         <v>116091</v>
       </c>
       <c r="C237" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D237">
         <v>20181019</v>
       </c>
       <c r="E237" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -7897,16 +7915,16 @@
         <v>168562</v>
       </c>
       <c r="C238" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D238">
         <v>20160226</v>
       </c>
       <c r="E238" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -7917,16 +7935,16 @@
         <v>131170</v>
       </c>
       <c r="C239" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D239">
         <v>20151030</v>
       </c>
       <c r="E239" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -7937,16 +7955,16 @@
         <v>48409</v>
       </c>
       <c r="C240" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D240">
         <v>20180704</v>
       </c>
       <c r="E240" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -7957,16 +7975,16 @@
         <v>89649</v>
       </c>
       <c r="C241" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D241">
         <v>20180201</v>
       </c>
       <c r="E241" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -7977,16 +7995,16 @@
         <v>11573</v>
       </c>
       <c r="C242" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D242">
         <v>20180829</v>
       </c>
       <c r="E242" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -7997,16 +8015,16 @@
         <v>46628</v>
       </c>
       <c r="C243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D243">
         <v>20150603</v>
       </c>
       <c r="E243" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -8017,16 +8035,16 @@
         <v>62130</v>
       </c>
       <c r="C244" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D244">
         <v>20180704</v>
       </c>
       <c r="E244" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -8037,16 +8055,16 @@
         <v>243344</v>
       </c>
       <c r="C245" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D245">
         <v>20181122</v>
       </c>
       <c r="E245" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -8057,16 +8075,16 @@
         <v>223822</v>
       </c>
       <c r="C246" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D246">
         <v>20170420</v>
       </c>
       <c r="E246" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -8077,16 +8095,16 @@
         <v>11585</v>
       </c>
       <c r="C247" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D247">
         <v>20150408</v>
       </c>
       <c r="E247" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -8097,16 +8115,16 @@
         <v>61982</v>
       </c>
       <c r="C248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D248">
         <v>20180704</v>
       </c>
       <c r="E248" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -8117,16 +8135,16 @@
         <v>11777</v>
       </c>
       <c r="C249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D249">
         <v>20151103</v>
       </c>
       <c r="E249" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -8137,16 +8155,16 @@
         <v>90673</v>
       </c>
       <c r="C250" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D250">
         <v>20150618</v>
       </c>
       <c r="E250" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -8157,16 +8175,16 @@
         <v>11521</v>
       </c>
       <c r="C251" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D251">
         <v>20190702</v>
       </c>
       <c r="E251" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -8177,16 +8195,16 @@
         <v>77489</v>
       </c>
       <c r="C252" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D252">
         <v>20160510</v>
       </c>
       <c r="E252" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -8197,16 +8215,16 @@
         <v>203127</v>
       </c>
       <c r="C253" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D253">
         <v>20171011</v>
       </c>
       <c r="E253" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -8217,16 +8235,16 @@
         <v>87919</v>
       </c>
       <c r="C254" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D254">
         <v>20180307</v>
       </c>
       <c r="E254" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -8237,16 +8255,16 @@
         <v>130956</v>
       </c>
       <c r="C255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D255">
         <v>20180827</v>
       </c>
       <c r="E255" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -8257,16 +8275,16 @@
         <v>196549</v>
       </c>
       <c r="C256" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D256">
         <v>20161012</v>
       </c>
       <c r="E256" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -8277,16 +8295,16 @@
         <v>11597</v>
       </c>
       <c r="C257" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D257">
         <v>20171020</v>
       </c>
       <c r="E257" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -8297,16 +8315,16 @@
         <v>49301</v>
       </c>
       <c r="C258" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D258">
         <v>20171023</v>
       </c>
       <c r="E258" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -8317,16 +8335,16 @@
         <v>11609</v>
       </c>
       <c r="C259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D259">
         <v>20161103</v>
       </c>
       <c r="E259" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -8337,16 +8355,16 @@
         <v>11621</v>
       </c>
       <c r="C260" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D260">
         <v>20161103</v>
       </c>
       <c r="E260" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -8357,16 +8375,16 @@
         <v>11633</v>
       </c>
       <c r="C261" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D261">
         <v>20150112</v>
       </c>
       <c r="E261" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -8377,16 +8395,16 @@
         <v>11645</v>
       </c>
       <c r="C262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D262">
         <v>20161104</v>
       </c>
       <c r="E262" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -8397,16 +8415,16 @@
         <v>11657</v>
       </c>
       <c r="C263" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D263">
         <v>20171010</v>
       </c>
       <c r="E263" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -8417,16 +8435,16 @@
         <v>11669</v>
       </c>
       <c r="C264" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D264">
         <v>20180810</v>
       </c>
       <c r="E264" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -8437,16 +8455,16 @@
         <v>11681</v>
       </c>
       <c r="C265" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D265">
         <v>20150207</v>
       </c>
       <c r="E265" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -8457,16 +8475,16 @@
         <v>228014</v>
       </c>
       <c r="C266" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D266">
         <v>20180704</v>
       </c>
       <c r="E266" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -8477,16 +8495,16 @@
         <v>11693</v>
       </c>
       <c r="C267" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D267">
         <v>20180829</v>
       </c>
       <c r="E267" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -8497,16 +8515,16 @@
         <v>11705</v>
       </c>
       <c r="C268" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D268">
         <v>20180809</v>
       </c>
       <c r="E268" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -8517,16 +8535,16 @@
         <v>11717</v>
       </c>
       <c r="C269" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D269">
         <v>20170210</v>
       </c>
       <c r="E269" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -8537,16 +8555,16 @@
         <v>206627</v>
       </c>
       <c r="C270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D270">
         <v>20161104</v>
       </c>
       <c r="E270" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -8557,16 +8575,16 @@
         <v>77761</v>
       </c>
       <c r="C271" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D271">
         <v>20180410</v>
       </c>
       <c r="E271" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -8577,16 +8595,16 @@
         <v>11729</v>
       </c>
       <c r="C272" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D272">
         <v>20170428</v>
       </c>
       <c r="E272" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -8597,16 +8615,16 @@
         <v>11741</v>
       </c>
       <c r="C273" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D273">
         <v>20150610</v>
       </c>
       <c r="E273" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -8617,16 +8635,16 @@
         <v>90185</v>
       </c>
       <c r="C274" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D274">
         <v>20180830</v>
       </c>
       <c r="E274" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -8637,16 +8655,16 @@
         <v>159202</v>
       </c>
       <c r="C275" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D275">
         <v>20180827</v>
       </c>
       <c r="E275" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -8657,16 +8675,16 @@
         <v>11753</v>
       </c>
       <c r="C276" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D276">
         <v>20150112</v>
       </c>
       <c r="E276" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -8677,16 +8695,16 @@
         <v>243660</v>
       </c>
       <c r="C277" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D277">
         <v>20180208</v>
       </c>
       <c r="E277" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -8697,16 +8715,16 @@
         <v>11765</v>
       </c>
       <c r="C278" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D278">
         <v>20150112</v>
       </c>
       <c r="E278" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -8717,16 +8735,16 @@
         <v>81092</v>
       </c>
       <c r="C279" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D279">
         <v>20180813</v>
       </c>
       <c r="E279" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -8737,16 +8755,16 @@
         <v>208804</v>
       </c>
       <c r="C280" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D280">
         <v>20161108</v>
       </c>
       <c r="E280" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -8757,16 +8775,16 @@
         <v>14682</v>
       </c>
       <c r="C281" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D281">
         <v>20160617</v>
       </c>
       <c r="E281" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -8777,16 +8795,16 @@
         <v>227604</v>
       </c>
       <c r="C282" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D282">
         <v>20170505</v>
       </c>
       <c r="E282" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -8797,16 +8815,16 @@
         <v>11789</v>
       </c>
       <c r="C283" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D283">
         <v>20180223</v>
       </c>
       <c r="E283" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -8817,16 +8835,16 @@
         <v>62825</v>
       </c>
       <c r="C284" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D284">
         <v>20180704</v>
       </c>
       <c r="E284" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -8837,16 +8855,16 @@
         <v>73014</v>
       </c>
       <c r="C285" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D285">
         <v>20150327</v>
       </c>
       <c r="E285" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -8857,16 +8875,16 @@
         <v>211413</v>
       </c>
       <c r="C286" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D286">
         <v>20161121</v>
       </c>
       <c r="E286" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8877,16 +8895,16 @@
         <v>128941</v>
       </c>
       <c r="C287" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D287">
         <v>20160412</v>
       </c>
       <c r="E287" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -8897,16 +8915,16 @@
         <v>103471</v>
       </c>
       <c r="C288" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D288">
         <v>20160412</v>
       </c>
       <c r="E288" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -8917,16 +8935,16 @@
         <v>103601</v>
       </c>
       <c r="C289" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D289">
         <v>20160412</v>
       </c>
       <c r="E289" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -8937,16 +8955,16 @@
         <v>103728</v>
       </c>
       <c r="C290" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D290">
         <v>20160412</v>
       </c>
       <c r="E290" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -8957,16 +8975,16 @@
         <v>103978</v>
       </c>
       <c r="C291" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D291">
         <v>20151028</v>
       </c>
       <c r="E291" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -8977,16 +8995,16 @@
         <v>105062</v>
       </c>
       <c r="C292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D292">
         <v>20160412</v>
       </c>
       <c r="E292" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -8997,16 +9015,16 @@
         <v>128572</v>
       </c>
       <c r="C293" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D293">
         <v>20160412</v>
       </c>
       <c r="E293" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -9017,16 +9035,16 @@
         <v>128651</v>
       </c>
       <c r="C294" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D294">
         <v>20151028</v>
       </c>
       <c r="E294" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -9037,16 +9055,16 @@
         <v>128760</v>
       </c>
       <c r="C295" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D295">
         <v>20151028</v>
       </c>
       <c r="E295" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -9057,16 +9075,16 @@
         <v>104228</v>
       </c>
       <c r="C296" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D296">
         <v>20151028</v>
       </c>
       <c r="E296" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -9077,16 +9095,16 @@
         <v>129072</v>
       </c>
       <c r="C297" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D297">
         <v>20160412</v>
       </c>
       <c r="E297" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -9097,16 +9115,16 @@
         <v>103851</v>
       </c>
       <c r="C298" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D298">
         <v>20151028</v>
       </c>
       <c r="E298" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -9117,16 +9135,16 @@
         <v>104446</v>
       </c>
       <c r="C299" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D299">
         <v>20160412</v>
       </c>
       <c r="E299" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -9137,16 +9155,16 @@
         <v>104351</v>
       </c>
       <c r="C300" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D300">
         <v>20160412</v>
       </c>
       <c r="E300" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -9157,16 +9175,16 @@
         <v>104597</v>
       </c>
       <c r="C301" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D301">
         <v>20160412</v>
       </c>
       <c r="E301" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -9177,16 +9195,16 @@
         <v>104720</v>
       </c>
       <c r="C302" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D302">
         <v>20160412</v>
       </c>
       <c r="E302" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -9197,16 +9215,16 @@
         <v>83836</v>
       </c>
       <c r="C303" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D303">
         <v>20160426</v>
       </c>
       <c r="E303" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -9217,16 +9235,16 @@
         <v>11801</v>
       </c>
       <c r="C304" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D304">
         <v>20170215</v>
       </c>
       <c r="E304" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -9237,16 +9255,16 @@
         <v>206839</v>
       </c>
       <c r="C305" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D305">
         <v>20170411</v>
       </c>
       <c r="E305" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -9257,16 +9275,16 @@
         <v>192718</v>
       </c>
       <c r="C306" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D306">
         <v>20181224</v>
       </c>
       <c r="E306" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -9277,16 +9295,16 @@
         <v>178115</v>
       </c>
       <c r="C307" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D307">
         <v>20180315</v>
       </c>
       <c r="E307" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -9297,16 +9315,16 @@
         <v>11349</v>
       </c>
       <c r="C308" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D308">
         <v>20171019</v>
       </c>
       <c r="E308" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -9317,16 +9335,16 @@
         <v>167250</v>
       </c>
       <c r="C309" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D309">
         <v>20171115</v>
       </c>
       <c r="E309" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -9337,16 +9355,16 @@
         <v>222053</v>
       </c>
       <c r="C310" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D310">
         <v>20171010</v>
       </c>
       <c r="E310" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -9357,16 +9375,16 @@
         <v>11837</v>
       </c>
       <c r="C311" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D311">
         <v>20171020</v>
       </c>
       <c r="E311" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -9377,16 +9395,16 @@
         <v>193731</v>
       </c>
       <c r="C312" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D312">
         <v>20160905</v>
       </c>
       <c r="E312" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -9397,16 +9415,16 @@
         <v>74839</v>
       </c>
       <c r="C313" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D313">
         <v>20180206</v>
       </c>
       <c r="E313" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -9417,16 +9435,16 @@
         <v>130321</v>
       </c>
       <c r="C314" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D314">
         <v>20151028</v>
       </c>
       <c r="E314" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -9437,16 +9455,16 @@
         <v>90027</v>
       </c>
       <c r="C315" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D315">
         <v>20180201</v>
       </c>
       <c r="E315" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -9457,16 +9475,16 @@
         <v>249098</v>
       </c>
       <c r="C316" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D316">
         <v>20180809</v>
       </c>
       <c r="E316" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -9477,16 +9495,16 @@
         <v>65074</v>
       </c>
       <c r="C317" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D317">
         <v>20150603</v>
       </c>
       <c r="E317" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -9497,16 +9515,16 @@
         <v>73889</v>
       </c>
       <c r="C318" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D318">
         <v>20170201</v>
       </c>
       <c r="E318" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -9517,16 +9535,16 @@
         <v>72618</v>
       </c>
       <c r="C319" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D319">
         <v>20160617</v>
       </c>
       <c r="E319" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -9537,16 +9555,16 @@
         <v>11373</v>
       </c>
       <c r="C320" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D320">
         <v>20170214</v>
       </c>
       <c r="E320" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -9557,16 +9575,16 @@
         <v>72496</v>
       </c>
       <c r="C321" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D321">
         <v>20160617</v>
       </c>
       <c r="E321" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -9577,16 +9595,16 @@
         <v>212160</v>
       </c>
       <c r="C322" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D322">
         <v>20171110</v>
       </c>
       <c r="E322" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -9597,16 +9615,16 @@
         <v>72365</v>
       </c>
       <c r="C323" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D323">
         <v>20160617</v>
       </c>
       <c r="E323" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -9617,16 +9635,16 @@
         <v>11337</v>
       </c>
       <c r="C324" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D324">
         <v>20170214</v>
       </c>
       <c r="E324" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -9637,16 +9655,16 @@
         <v>11849</v>
       </c>
       <c r="C325" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D325">
         <v>20150408</v>
       </c>
       <c r="E325" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -9657,16 +9675,16 @@
         <v>191161</v>
       </c>
       <c r="C326" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D326">
         <v>20161028</v>
       </c>
       <c r="E326" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -9677,16 +9695,16 @@
         <v>71542</v>
       </c>
       <c r="C327" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D327">
         <v>20160217</v>
       </c>
       <c r="E327" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -9697,16 +9715,16 @@
         <v>190557</v>
       </c>
       <c r="C328" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D328">
         <v>20160615</v>
       </c>
       <c r="E328" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -9717,16 +9735,16 @@
         <v>11861</v>
       </c>
       <c r="C329" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D329">
         <v>20181122</v>
       </c>
       <c r="E329" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -9737,16 +9755,16 @@
         <v>115612</v>
       </c>
       <c r="C330" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D330">
         <v>20171116</v>
       </c>
       <c r="E330" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -9757,16 +9775,16 @@
         <v>114413</v>
       </c>
       <c r="C331" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D331">
         <v>20180227</v>
       </c>
       <c r="E331" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -9777,16 +9795,16 @@
         <v>159885</v>
       </c>
       <c r="C332" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D332">
         <v>20180829</v>
       </c>
       <c r="E332" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -9797,16 +9815,16 @@
         <v>11873</v>
       </c>
       <c r="C333" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D333">
         <v>20161107</v>
       </c>
       <c r="E333" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -9817,16 +9835,16 @@
         <v>226584</v>
       </c>
       <c r="C334" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D334">
         <v>20170504</v>
       </c>
       <c r="E334" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -9837,16 +9855,16 @@
         <v>253948</v>
       </c>
       <c r="C335" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D335">
         <v>20180830</v>
       </c>
       <c r="E335" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -9857,16 +9875,16 @@
         <v>81424</v>
       </c>
       <c r="C336" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D336">
         <v>20170224</v>
       </c>
       <c r="E336" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -9877,16 +9895,16 @@
         <v>86406</v>
       </c>
       <c r="C337" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D337">
         <v>20150514</v>
       </c>
       <c r="E337" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -9897,16 +9915,16 @@
         <v>82561</v>
       </c>
       <c r="C338" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D338">
         <v>20150421</v>
       </c>
       <c r="E338" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -9917,16 +9935,16 @@
         <v>82402</v>
       </c>
       <c r="C339" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D339">
         <v>20171011</v>
       </c>
       <c r="E339" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -9937,16 +9955,16 @@
         <v>80961</v>
       </c>
       <c r="C340" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D340">
         <v>20150416</v>
       </c>
       <c r="E340" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -9957,16 +9975,16 @@
         <v>80677</v>
       </c>
       <c r="C341" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D341">
         <v>20171023</v>
       </c>
       <c r="E341" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -9977,16 +9995,16 @@
         <v>86597</v>
       </c>
       <c r="C342" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D342">
         <v>20170505</v>
       </c>
       <c r="E342" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -9997,16 +10015,16 @@
         <v>216578</v>
       </c>
       <c r="C343" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D343">
         <v>20170201</v>
       </c>
       <c r="E343" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -10017,16 +10035,16 @@
         <v>80830</v>
       </c>
       <c r="C344" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D344">
         <v>20161028</v>
       </c>
       <c r="E344" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -10037,16 +10055,16 @@
         <v>62647</v>
       </c>
       <c r="C345" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D345">
         <v>20180810</v>
       </c>
       <c r="E345" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -10057,16 +10075,16 @@
         <v>82717</v>
       </c>
       <c r="C346" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D346">
         <v>20180813</v>
       </c>
       <c r="E346" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -10077,16 +10095,16 @@
         <v>81759</v>
       </c>
       <c r="C347" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D347">
         <v>20150629</v>
       </c>
       <c r="E347" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -10097,16 +10115,16 @@
         <v>82113</v>
       </c>
       <c r="C348" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D348">
         <v>20170131</v>
       </c>
       <c r="E348" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -10117,16 +10135,16 @@
         <v>83045</v>
       </c>
       <c r="C349" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D349">
         <v>20180813</v>
       </c>
       <c r="E349" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -10137,16 +10155,16 @@
         <v>11885</v>
       </c>
       <c r="C350" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D350">
         <v>20180208</v>
       </c>
       <c r="E350" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -10157,16 +10175,16 @@
         <v>248334</v>
       </c>
       <c r="C351" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D351">
         <v>20180702</v>
       </c>
       <c r="E351" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -10177,16 +10195,16 @@
         <v>11897</v>
       </c>
       <c r="C352" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D352">
         <v>20150112</v>
       </c>
       <c r="E352" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -10197,16 +10215,16 @@
         <v>206417</v>
       </c>
       <c r="C353" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D353">
         <v>20180208</v>
       </c>
       <c r="E353" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -10217,16 +10235,16 @@
         <v>11909</v>
       </c>
       <c r="C354" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D354">
         <v>20161026</v>
       </c>
       <c r="E354" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -10237,16 +10255,16 @@
         <v>63562</v>
       </c>
       <c r="C355" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D355">
         <v>20180223</v>
       </c>
       <c r="E355" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -10257,16 +10275,16 @@
         <v>11921</v>
       </c>
       <c r="C356" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D356">
         <v>20161104</v>
       </c>
       <c r="E356" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -10277,16 +10295,16 @@
         <v>11933</v>
       </c>
       <c r="C357" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D357">
         <v>20150603</v>
       </c>
       <c r="E357" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -10297,16 +10315,16 @@
         <v>11945</v>
       </c>
       <c r="C358" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D358">
         <v>20161107</v>
       </c>
       <c r="E358" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -10317,16 +10335,16 @@
         <v>207225</v>
       </c>
       <c r="C359" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D359">
         <v>20161104</v>
       </c>
       <c r="E359" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -10337,16 +10355,16 @@
         <v>11957</v>
       </c>
       <c r="C360" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D360">
         <v>20180227</v>
       </c>
       <c r="E360" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -10357,16 +10375,16 @@
         <v>130824</v>
       </c>
       <c r="C361" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D361">
         <v>20171019</v>
       </c>
       <c r="E361" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -10377,16 +10395,16 @@
         <v>194706</v>
       </c>
       <c r="C362" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D362">
         <v>20170224</v>
       </c>
       <c r="E362" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -10397,16 +10415,16 @@
         <v>67264</v>
       </c>
       <c r="C363" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D363">
         <v>20171023</v>
       </c>
       <c r="E363" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -10417,16 +10435,16 @@
         <v>207700</v>
       </c>
       <c r="C364" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D364">
         <v>20170503</v>
       </c>
       <c r="E364" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -10437,16 +10455,16 @@
         <v>11229</v>
       </c>
       <c r="C365" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D365">
         <v>20150525</v>
       </c>
       <c r="E365" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -10457,16 +10475,16 @@
         <v>11969</v>
       </c>
       <c r="C366" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D366">
         <v>20161107</v>
       </c>
       <c r="E366" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -10477,16 +10495,16 @@
         <v>11981</v>
       </c>
       <c r="C367" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D367">
         <v>20161026</v>
       </c>
       <c r="E367" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -10497,16 +10515,16 @@
         <v>11993</v>
       </c>
       <c r="C368" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D368">
         <v>20150112</v>
       </c>
       <c r="E368" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -10517,16 +10535,16 @@
         <v>12005</v>
       </c>
       <c r="C369" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D369">
         <v>20150112</v>
       </c>
       <c r="E369" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -10537,16 +10555,16 @@
         <v>35811</v>
       </c>
       <c r="C370" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D370">
         <v>20180223</v>
       </c>
       <c r="E370" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -10557,16 +10575,16 @@
         <v>12017</v>
       </c>
       <c r="C371" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D371">
         <v>20180703</v>
       </c>
       <c r="E371" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -10577,16 +10595,16 @@
         <v>177188</v>
       </c>
       <c r="C372" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D372">
         <v>20161026</v>
       </c>
       <c r="E372" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -10597,16 +10615,16 @@
         <v>207510</v>
       </c>
       <c r="C373" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D373">
         <v>20161107</v>
       </c>
       <c r="E373" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -10617,16 +10635,16 @@
         <v>208476</v>
       </c>
       <c r="C374" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D374">
         <v>20161107</v>
       </c>
       <c r="E374" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -10637,16 +10655,16 @@
         <v>207892</v>
       </c>
       <c r="C375" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D375">
         <v>20161107</v>
       </c>
       <c r="E375" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -10657,16 +10675,16 @@
         <v>12029</v>
       </c>
       <c r="C376" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D376">
         <v>20150305</v>
       </c>
       <c r="E376" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -10677,16 +10695,16 @@
         <v>80509</v>
       </c>
       <c r="C377" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D377">
         <v>20170224</v>
       </c>
       <c r="E377" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -10697,16 +10715,16 @@
         <v>243149</v>
       </c>
       <c r="C378" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D378">
         <v>20180206</v>
       </c>
       <c r="E378" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -10717,16 +10735,16 @@
         <v>63836</v>
       </c>
       <c r="C379" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D379">
         <v>20171011</v>
       </c>
       <c r="E379" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -10737,16 +10755,16 @@
         <v>250030</v>
       </c>
       <c r="C380" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D380">
         <v>20180810</v>
       </c>
       <c r="E380" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -10757,16 +10775,16 @@
         <v>215902</v>
       </c>
       <c r="C381" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D381">
         <v>20170131</v>
       </c>
       <c r="E381" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -10777,16 +10795,16 @@
         <v>72744</v>
       </c>
       <c r="C382" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D382">
         <v>20171107</v>
       </c>
       <c r="E382" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -10797,16 +10815,16 @@
         <v>91466</v>
       </c>
       <c r="C383" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D383">
         <v>20150715</v>
       </c>
       <c r="E383" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -10817,16 +10835,16 @@
         <v>12041</v>
       </c>
       <c r="C384" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D384">
         <v>20150112</v>
       </c>
       <c r="E384" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -10837,16 +10855,16 @@
         <v>253739</v>
       </c>
       <c r="C385" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D385">
         <v>20180830</v>
       </c>
       <c r="E385" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -10857,16 +10875,16 @@
         <v>226267</v>
       </c>
       <c r="C386" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D386">
         <v>20170503</v>
       </c>
       <c r="E386" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -10877,16 +10895,16 @@
         <v>50695</v>
       </c>
       <c r="C387" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D387">
         <v>20180227</v>
       </c>
       <c r="E387" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -10897,16 +10915,16 @@
         <v>50490</v>
       </c>
       <c r="C388" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D388">
         <v>20180829</v>
       </c>
       <c r="E388" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -10917,16 +10935,16 @@
         <v>190741</v>
       </c>
       <c r="C389" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D389">
         <v>20180829</v>
       </c>
       <c r="E389" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -10937,16 +10955,16 @@
         <v>50316</v>
       </c>
       <c r="C390" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D390">
         <v>20180829</v>
       </c>
       <c r="E390" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -10957,16 +10975,16 @@
         <v>12053</v>
       </c>
       <c r="C391" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D391">
         <v>20161018</v>
       </c>
       <c r="E391" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -10977,16 +10995,16 @@
         <v>54896</v>
       </c>
       <c r="C392" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D392">
         <v>20180829</v>
       </c>
       <c r="E392" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -10997,16 +11015,16 @@
         <v>209177</v>
       </c>
       <c r="C393" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D393">
         <v>20161109</v>
       </c>
       <c r="E393" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -11017,16 +11035,16 @@
         <v>93001</v>
       </c>
       <c r="C394" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D394">
         <v>20150720</v>
       </c>
       <c r="E394" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -11037,16 +11055,16 @@
         <v>162547</v>
       </c>
       <c r="C395" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D395">
         <v>20160221</v>
       </c>
       <c r="E395" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -11057,16 +11075,16 @@
         <v>226819</v>
       </c>
       <c r="C396" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D396">
         <v>20170504</v>
       </c>
       <c r="E396" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -11077,16 +11095,16 @@
         <v>90353</v>
       </c>
       <c r="C397" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D397">
         <v>20150617</v>
       </c>
       <c r="E397" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -11097,16 +11115,16 @@
         <v>12065</v>
       </c>
       <c r="C398" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D398">
         <v>20150112</v>
       </c>
       <c r="E398" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -11117,16 +11135,16 @@
         <v>233824</v>
       </c>
       <c r="C399" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D399">
         <v>20171031</v>
       </c>
       <c r="E399" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -11532,4 +11550,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rd_connect_auto.xlsx
+++ b/rd_connect_auto.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="1759">
   <si>
     <t>name</t>
   </si>
@@ -462,10 +462,10 @@
     <t>Other4838</t>
   </si>
   <si>
+    <t>rd_bb_contribution</t>
+  </si>
+  <si>
     <t>Is_your_entire_sample_collection_available_for_the_RD-Connect_Catalogue</t>
-  </si>
-  <si>
-    <t>rd_bb_contribution</t>
   </si>
   <si>
     <t>If_not__please_specify_what_type_of_collections_can_be_publicly_available</t>
@@ -6188,7 +6188,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8152,7 +8152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>139</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>140</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>141</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>142</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>143</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -8271,154 +8271,157 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C120" t="s">
         <v>35</v>
       </c>
       <c r="D120" t="s">
+        <v>144</v>
+      </c>
+      <c r="H120" t="s">
+        <v>43</v>
+      </c>
+      <c r="J120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
         <v>145</v>
       </c>
-      <c r="H120" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
-        <v>146</v>
-      </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
         <v>35</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H121" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
         <v>35</v>
       </c>
       <c r="D122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H122" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
         <v>35</v>
       </c>
       <c r="D123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H123" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
         <v>35</v>
       </c>
       <c r="D124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H124" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
         <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H125" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
         <v>35</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H126" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s">
         <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H127" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C128" t="s">
         <v>35</v>
       </c>
       <c r="D128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H128" t="s">
         <v>37</v>
@@ -8426,16 +8429,16 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="B129" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
         <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H129" t="s">
         <v>37</v>
@@ -8443,30 +8446,27 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C130" t="s">
         <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H130" t="s">
-        <v>43</v>
-      </c>
-      <c r="J130" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C131" t="s">
         <v>35</v>
@@ -8475,15 +8475,18 @@
         <v>154</v>
       </c>
       <c r="H131" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="J131" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" t="s">
         <v>35</v>
@@ -8497,10 +8500,10 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C133" t="s">
         <v>35</v>
@@ -8514,10 +8517,10 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C134" t="s">
         <v>35</v>
@@ -8531,10 +8534,10 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
@@ -8548,10 +8551,10 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="B136" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C136" t="s">
         <v>35</v>
@@ -8565,10 +8568,10 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
@@ -8582,10 +8585,10 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
         <v>35</v>
@@ -8599,10 +8602,10 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C139" t="s">
         <v>35</v>
@@ -8616,10 +8619,10 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C140" t="s">
         <v>35</v>
@@ -8633,10 +8636,10 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C141" t="s">
         <v>35</v>
@@ -8650,10 +8653,10 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C142" t="s">
         <v>35</v>
@@ -8667,10 +8670,10 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
         <v>35</v>
@@ -8684,10 +8687,10 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
         <v>35</v>
@@ -8701,30 +8704,27 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C145" t="s">
         <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H145" t="s">
-        <v>43</v>
-      </c>
-      <c r="J145" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="C146" t="s">
         <v>35</v>
@@ -8733,15 +8733,18 @@
         <v>159</v>
       </c>
       <c r="H146" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="J146" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C147" t="s">
         <v>35</v>
@@ -8755,10 +8758,10 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C148" t="s">
         <v>35</v>
@@ -8772,10 +8775,10 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C149" t="s">
         <v>35</v>
@@ -8789,10 +8792,10 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C150" t="s">
         <v>35</v>
@@ -8806,10 +8809,10 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -8823,10 +8826,10 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B152" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="C152" t="s">
         <v>35</v>
@@ -8835,6 +8838,23 @@
         <v>159</v>
       </c>
       <c r="H152" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>85</v>
+      </c>
+      <c r="B153" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" t="s">
+        <v>159</v>
+      </c>
+      <c r="H153" t="s">
         <v>37</v>
       </c>
     </row>
@@ -17436,41 +17456,44 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>148</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>153</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>85</v>
       </c>
     </row>
